--- a/data/trans_dic/P12C1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12C1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo)</t>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -549,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,74</t>
+          <t>0,0; 24,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,48</t>
+          <t>5,22; 29,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 33,3</t>
+          <t>4,8; 25,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,19</t>
+          <t>16,1; 42,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,5</t>
+          <t>4,06; 19,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,34</t>
+          <t>13,97; 31,8</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>54,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>73,83%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 21,34</t>
+          <t>3,16; 21,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 20,51</t>
+          <t>38,63; 85,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,62; 60,5</t>
+          <t>42,05; 68,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,39; 62,85</t>
+          <t>75,83; 93,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,65; 40,31</t>
+          <t>18,81; 40,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 39,15</t>
+          <t>55,85; 85,97</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>73,26%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,31</t>
+          <t>4,91; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,75</t>
+          <t>41,08; 68,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,69; 59,3</t>
+          <t>42,0; 61,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,8; 61,89</t>
+          <t>78,6; 92,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,41; 38,71</t>
+          <t>27,76; 43,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 38,71</t>
+          <t>65,03; 80,34</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>80,86%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 21,55</t>
+          <t>7,69; 23,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 20,31</t>
+          <t>62,41; 82,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 66,67</t>
+          <t>58,32; 76,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,79; 70,22</t>
+          <t>81,23; 93,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,51; 45,37</t>
+          <t>35,27; 49,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,93; 46,59</t>
+          <t>74,89; 87,06</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>70,86%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 30,17</t>
+          <t>9,8; 35,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 32,42</t>
+          <t>43,77; 70,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,19; 74,73</t>
+          <t>59,02; 85,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,63; 75,36</t>
+          <t>72,79; 93,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,75; 48,94</t>
+          <t>33,38; 53,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,05; 50,21</t>
+          <t>62,07; 78,97</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>54,22%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 21,3</t>
+          <t>2,18; 20,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,94</t>
+          <t>33,83; 66,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,72; 63,82</t>
+          <t>33,63; 63,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,63; 46,5</t>
+          <t>37,25; 74,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 41,28</t>
+          <t>20,46; 41,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 31,62</t>
+          <t>40,93; 66,4</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>73,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>64,52%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 16,35</t>
+          <t>8,54; 16,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,64</t>
+          <t>47,76; 62,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,47; 54,43</t>
+          <t>47,32; 56,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,71; 51,64</t>
+          <t>65,99; 78,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,01</t>
+          <t>28,44; 35,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,66; 32,41</t>
+          <t>59,57; 69,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8413</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20598</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15861</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41364</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24274</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61962</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 31509</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7367; 41909</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5876; 30948</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23425; 61716</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10153; 48364</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40045; 91169</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15175</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147577</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69035</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>140405</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>84210</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>287982</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4871; 33855</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>87957; 194347</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53120; 86001</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>123133; 152132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52789; 112531</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>217860; 335343</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16239</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98290</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>102243</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>209363</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>118482</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>307653</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6757; 30787</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74042; 122756</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84197; 122811</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>188417; 222764</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>93847; 145870</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>273092; 337405</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22021</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>144175</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116285</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>188770</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>138307</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>332945</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12005; 36131</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124184; 163403</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>99655; 131327</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>172813; 199538</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>115364; 162246</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>308367; 358468</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23478</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89707</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>69078</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>116996</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>92556</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>206703</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12072; 43158</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67690; 108692</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54695; 78786</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>99764; 128236</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72063; 114532</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>181062; 230364</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>67295</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>54994</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>121750</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>62094</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>189045</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1964; 18708</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>46628; 91898</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>37196; 70593</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78539; 156952</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41067; 82686</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>142705; 231494</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>92426</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>567641</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>427497</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>818647</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>519923</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1386289</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67369; 129391</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>497016; 648309</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>389612; 468636</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>731298; 872795</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>458524; 573500</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1279997; 1492232</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>